--- a/Modeling of solar PV/ElectricityStorageSolved.xlsx
+++ b/Modeling of solar PV/ElectricityStorageSolved.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdl352\Box Sync\Systems_Modeling_2017\Lectures\ElectricityStorage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZWL/Documents/GitHub/Assorted_projects/Modeling of solar PV/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
+    <workbookView xWindow="11340" yWindow="2260" windowWidth="20520" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$B$39:$Y$39</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Sheet1!$B$39:$Y$39</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Sheet1!$B$39:$Y$39</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -62,9 +63,9 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Hour</t>
   </si>
@@ -204,11 +205,14 @@
   <si>
     <t>Maximum Battery Output, GW</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -382,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +459,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +528,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -991,78 +996,78 @@
             <c:numRef>
               <c:f>Sheet1!$B$34:$Y$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9132252166164163E-13</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>-2.9132252166164198E-13</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>-1.9617640845126516E-13</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
                   <c:v>-2.9600100148741097E-13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="General">
                   <c:v>5.1447115200899258E-13</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="General">
                   <c:v>7.8281648148916292E-14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="General">
                   <c:v>-5.7034278004524947E-13</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="General">
                   <c:v>7.291490359569473E-13</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="General">
                   <c:v>3.5670956636349104E-13</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="General">
                   <c:v>-5.1424137733054051E-13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="General">
                   <c:v>-34.051937924327135</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="General">
                   <c:v>-21.889740568296407</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="General">
                   <c:v>34.051937924328207</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="General">
                   <c:v>-26.501315936836455</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="General">
                   <c:v>-20.711409812029135</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="General">
                   <c:v>-8.3746280865927059</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="General">
                   <c:v>5.3407447543833051</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="General">
                   <c:v>13.889876567520155</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="General">
                   <c:v>18.638440225483624</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="General">
                   <c:v>12.279712436696611</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="General">
                   <c:v>6.3347594376925942</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="General">
                   <c:v>11.523241744680648</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="General">
                   <c:v>11.758409943550777</c:v>
                 </c:pt>
               </c:numCache>
@@ -1120,7 +1125,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1240,7 +1244,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1315,7 +1318,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1939,7 +1941,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2219,20 +2227,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -2369,7 +2378,7 @@
       <c r="BE2" s="63"/>
       <c r="BF2" s="63"/>
     </row>
-    <row r="3" spans="1:58" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>28</v>
       </c>
@@ -2431,7 +2440,7 @@
       <c r="BE3" s="63"/>
       <c r="BF3" s="63"/>
     </row>
-    <row r="4" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2541,7 +2550,7 @@
       <c r="BE4" s="64"/>
       <c r="BF4" s="64"/>
     </row>
-    <row r="5" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -2651,7 +2660,7 @@
       <c r="BE5" s="64"/>
       <c r="BF5" s="64"/>
     </row>
-    <row r="6" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -2761,7 +2770,7 @@
       <c r="BE6" s="64"/>
       <c r="BF6" s="64"/>
     </row>
-    <row r="7" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -2871,7 +2880,7 @@
       <c r="BE7" s="64"/>
       <c r="BF7" s="64"/>
     </row>
-    <row r="8" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
@@ -2981,7 +2990,7 @@
       <c r="BE8" s="64"/>
       <c r="BF8" s="64"/>
     </row>
-    <row r="9" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
@@ -3114,7 +3123,7 @@
       <c r="BE9" s="64"/>
       <c r="BF9" s="64"/>
     </row>
-    <row r="10" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
@@ -3247,7 +3256,7 @@
       <c r="BE10" s="64"/>
       <c r="BF10" s="64"/>
     </row>
-    <row r="11" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
@@ -3380,7 +3389,7 @@
       <c r="BE11" s="64"/>
       <c r="BF11" s="64"/>
     </row>
-    <row r="12" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3522,7 @@
       <c r="BE12" s="64"/>
       <c r="BF12" s="64"/>
     </row>
-    <row r="13" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
@@ -3647,7 +3656,7 @@
       <c r="BE13" s="64"/>
       <c r="BF13" s="64"/>
     </row>
-    <row r="14" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
@@ -3781,7 +3790,7 @@
       <c r="BE14" s="64"/>
       <c r="BF14" s="64"/>
     </row>
-    <row r="15" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
@@ -3915,7 +3924,7 @@
       <c r="BE15" s="64"/>
       <c r="BF15" s="64"/>
     </row>
-    <row r="16" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
@@ -4049,7 +4058,7 @@
       <c r="BE16" s="64"/>
       <c r="BF16" s="64"/>
     </row>
-    <row r="17" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>14</v>
       </c>
@@ -4159,7 +4168,7 @@
       <c r="BE17" s="64"/>
       <c r="BF17" s="64"/>
     </row>
-    <row r="18" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
@@ -4269,7 +4278,7 @@
       <c r="BE18" s="64"/>
       <c r="BF18" s="64"/>
     </row>
-    <row r="19" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>16</v>
       </c>
@@ -4379,7 +4388,7 @@
       <c r="BE19" s="64"/>
       <c r="BF19" s="64"/>
     </row>
-    <row r="20" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
@@ -4489,7 +4498,7 @@
       <c r="BE20" s="64"/>
       <c r="BF20" s="64"/>
     </row>
-    <row r="21" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4608,7 @@
       <c r="BE21" s="64"/>
       <c r="BF21" s="64"/>
     </row>
-    <row r="22" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>19</v>
       </c>
@@ -4709,7 +4718,7 @@
       <c r="BE22" s="64"/>
       <c r="BF22" s="64"/>
     </row>
-    <row r="23" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>20</v>
       </c>
@@ -4819,7 +4828,7 @@
       <c r="BE23" s="64"/>
       <c r="BF23" s="64"/>
     </row>
-    <row r="24" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>21</v>
       </c>
@@ -4929,7 +4938,7 @@
       <c r="BE24" s="64"/>
       <c r="BF24" s="64"/>
     </row>
-    <row r="25" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>26</v>
       </c>
@@ -5062,7 +5071,7 @@
       <c r="BE25" s="64"/>
       <c r="BF25" s="64"/>
     </row>
-    <row r="26" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>41</v>
       </c>
@@ -5126,7 +5135,7 @@
       <c r="BE26" s="64"/>
       <c r="BF26" s="64"/>
     </row>
-    <row r="27" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
@@ -5190,7 +5199,7 @@
       <c r="BE27" s="64"/>
       <c r="BF27" s="64"/>
     </row>
-    <row r="28" spans="1:58" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -5250,7 +5259,7 @@
       <c r="BE28" s="64"/>
       <c r="BF28" s="64"/>
     </row>
-    <row r="29" spans="1:58" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
@@ -5312,7 +5321,7 @@
       <c r="BE29" s="64"/>
       <c r="BF29" s="64"/>
     </row>
-    <row r="30" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>22</v>
       </c>
@@ -5422,7 +5431,7 @@
       <c r="BE30" s="64"/>
       <c r="BF30" s="64"/>
     </row>
-    <row r="31" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>23</v>
       </c>
@@ -5532,7 +5541,7 @@
       <c r="BE31" s="64"/>
       <c r="BF31" s="64"/>
     </row>
-    <row r="32" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>24</v>
       </c>
@@ -5642,7 +5651,7 @@
       <c r="BE32" s="64"/>
       <c r="BF32" s="64"/>
     </row>
-    <row r="33" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>25</v>
       </c>
@@ -5752,15 +5761,15 @@
       <c r="BE33" s="64"/>
       <c r="BF33" s="64"/>
     </row>
-    <row r="34" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="33">
         <v>0</v>
       </c>
-      <c r="C34" s="33">
-        <v>-2.9132252166164163E-13</v>
+      <c r="C34" s="66">
+        <v>-2.9132252166164198E-13</v>
       </c>
       <c r="D34" s="33">
         <v>-1.9617640845126516E-13</v>
@@ -5862,7 +5871,7 @@
       <c r="BE34" s="64"/>
       <c r="BF34" s="64"/>
     </row>
-    <row r="35" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
         <v>36</v>
       </c>
@@ -5926,7 +5935,7 @@
       <c r="BE35" s="64"/>
       <c r="BF35" s="64"/>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -5986,7 +5995,7 @@
       <c r="BE36" s="64"/>
       <c r="BF36" s="64"/>
     </row>
-    <row r="37" spans="1:58" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:58" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>29</v>
       </c>
@@ -6048,7 +6057,7 @@
       <c r="BE37" s="65"/>
       <c r="BF37" s="65"/>
     </row>
-    <row r="38" spans="1:58" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>38</v>
       </c>
@@ -6182,7 +6191,7 @@
       <c r="BE38" s="65"/>
       <c r="BF38" s="65"/>
     </row>
-    <row r="39" spans="1:58" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>39</v>
       </c>
@@ -6193,45 +6202,45 @@
         <f>(1-$B$26)*B39-B34</f>
         <v>0</v>
       </c>
-      <c r="D39" s="56">
-        <f t="shared" ref="D39:Y39" si="10">(1-$B$26)*C39-C34</f>
-        <v>2.9132252166164163E-13</v>
+      <c r="D39" s="67">
+        <f>(1-$B$26)*C39-C34</f>
+        <v>2.9132252166164198E-13</v>
       </c>
       <c r="E39" s="56">
-        <f t="shared" si="10"/>
-        <v>4.8167247967967397E-13</v>
+        <f>(1-$B$26)*D39-D34</f>
+        <v>4.8167247967967427E-13</v>
       </c>
       <c r="F39" s="56">
-        <f t="shared" si="10"/>
-        <v>7.6804003157349148E-13</v>
+        <f t="shared" ref="F39:Y39" si="10">(1-$B$26)*E39-E34</f>
+        <v>7.6804003157349168E-13</v>
       </c>
       <c r="G39" s="56">
         <f t="shared" si="10"/>
-        <v>2.3820807893302909E-13</v>
+        <v>2.3820807893302929E-13</v>
       </c>
       <c r="H39" s="56">
         <f t="shared" si="10"/>
-        <v>1.551622692054522E-13</v>
+        <v>1.551622692054524E-13</v>
       </c>
       <c r="I39" s="56">
         <f t="shared" si="10"/>
-        <v>7.2240180386659262E-13</v>
+        <v>7.2240180386659283E-13</v>
       </c>
       <c r="J39" s="56">
         <f t="shared" si="10"/>
-        <v>-2.1195268167686503E-14</v>
+        <v>-2.1195268167686301E-14</v>
       </c>
       <c r="K39" s="56">
         <f t="shared" si="10"/>
-        <v>-3.7748092916782384E-13</v>
+        <v>-3.7748092916782363E-13</v>
       </c>
       <c r="L39" s="56">
         <f t="shared" si="10"/>
-        <v>-3.6993131058446737E-13</v>
+        <v>-3.6993131058446717E-13</v>
       </c>
       <c r="M39" s="56">
         <f t="shared" si="10"/>
-        <v>1.5170869295776249E-13</v>
+        <v>1.5170869295776269E-13</v>
       </c>
       <c r="N39" s="56">
         <f t="shared" si="10"/>
@@ -6315,7 +6324,7 @@
       <c r="BE39" s="65"/>
       <c r="BF39" s="65"/>
     </row>
-    <row r="40" spans="1:58" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>42</v>
       </c>
@@ -6327,48 +6336,47 @@
         <v>0</v>
       </c>
       <c r="D40" s="56">
-        <f t="shared" ref="D40:Y40" si="11">C39</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="56">
-        <f t="shared" si="11"/>
-        <v>2.9132252166164163E-13</v>
+        <f>C39</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="67" t="s">
+        <v>43</v>
       </c>
       <c r="F40" s="56">
-        <f t="shared" si="11"/>
-        <v>4.8167247967967397E-13</v>
+        <f t="shared" ref="F40:Y40" si="11">E39</f>
+        <v>4.8167247967967427E-13</v>
       </c>
       <c r="G40" s="56">
         <f t="shared" si="11"/>
-        <v>7.6804003157349148E-13</v>
+        <v>7.6804003157349168E-13</v>
       </c>
       <c r="H40" s="56">
         <f t="shared" si="11"/>
-        <v>2.3820807893302909E-13</v>
+        <v>2.3820807893302929E-13</v>
       </c>
       <c r="I40" s="56">
         <f t="shared" si="11"/>
-        <v>1.551622692054522E-13</v>
+        <v>1.551622692054524E-13</v>
       </c>
       <c r="J40" s="56">
         <f t="shared" si="11"/>
-        <v>7.2240180386659262E-13</v>
+        <v>7.2240180386659283E-13</v>
       </c>
       <c r="K40" s="56">
         <f t="shared" si="11"/>
-        <v>-2.1195268167686503E-14</v>
+        <v>-2.1195268167686301E-14</v>
       </c>
       <c r="L40" s="56">
         <f t="shared" si="11"/>
-        <v>-3.7748092916782384E-13</v>
+        <v>-3.7748092916782363E-13</v>
       </c>
       <c r="M40" s="56">
         <f t="shared" si="11"/>
-        <v>-3.6993131058446737E-13</v>
+        <v>-3.6993131058446717E-13</v>
       </c>
       <c r="N40" s="56">
         <f t="shared" si="11"/>
-        <v>1.5170869295776249E-13</v>
+        <v>1.5170869295776269E-13</v>
       </c>
       <c r="O40" s="56">
         <f t="shared" si="11"/>
@@ -6448,7 +6456,7 @@
       <c r="BE40" s="65"/>
       <c r="BF40" s="65"/>
     </row>
-    <row r="41" spans="1:58" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48" t="s">
         <v>40</v>
       </c>
@@ -6582,7 +6590,7 @@
       <c r="BE41" s="65"/>
       <c r="BF41" s="65"/>
     </row>
-    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
         <v>30</v>
       </c>
@@ -6716,7 +6724,7 @@
       <c r="BE42" s="64"/>
       <c r="BF42" s="64"/>
     </row>
-    <row r="43" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
         <v>31</v>
       </c>
@@ -6850,7 +6858,7 @@
       <c r="BE43" s="64"/>
       <c r="BF43" s="64"/>
     </row>
-    <row r="44" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
         <v>37</v>
       </c>
@@ -6915,7 +6923,7 @@
       <c r="BE44" s="64"/>
       <c r="BF44" s="64"/>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
@@ -6975,7 +6983,7 @@
       <c r="BE45" s="64"/>
       <c r="BF45" s="64"/>
     </row>
-    <row r="46" spans="1:58" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:58" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>32</v>
       </c>
@@ -7004,7 +7012,7 @@
       <c r="X46" s="59"/>
       <c r="Y46" s="59"/>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="s">
         <v>33</v>
       </c>
@@ -7013,18 +7021,18 @@
         <v>5607743.1256446522</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="29"/>
     </row>
   </sheetData>
